--- a/LAYOUT_AEROMAR/Layout_puestos_trabajo.xlsx
+++ b/LAYOUT_AEROMAR/Layout_puestos_trabajo.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Hoja 1'!$A$1:$A$282</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Hoja 1'!$A$1:$A$285</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Hoja 1'!$A$1:$A$285</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Hoja 1'!$A$1:$A$282</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -998,12 +998,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1073,21 +1073,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A282"/>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A262" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B281" activeCellId="0" sqref="B281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3215,7 +3214,7 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:A282"/>
+  <autoFilter ref="A1:A285"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
